--- a/mentors.xlsx
+++ b/mentors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepb\Documents\Miscellaneous\Coding\Projects\ISMA matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A44B68-163C-4F46-A45A-116FF55EDDA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E3721-C640-4FE3-BA4C-05ACDFEA105A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="2750" windowWidth="14400" windowHeight="7495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
-  <si>
-    <t>Name of mentee(s) you would prefer to be matched with? Leave blank otherwise.</t>
-  </si>
-  <si>
-    <t>What state are you from?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>What languages do you speak, if any, besides English? (Leave blank if none)</t>
   </si>
   <si>
-    <t>What's your major or degree program?</t>
-  </si>
-  <si>
-    <t>Is there anything you would prefer for us to take into account when matching you? Please leave blank if not.</t>
-  </si>
-  <si>
     <t>Do you identify more as an introvert or an extrovert?</t>
   </si>
   <si>
@@ -76,15 +64,9 @@
     <t>Jules Bettler</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
-    <t>Manufacturing Engineering</t>
-  </si>
-  <si>
     <t>Extrovert</t>
   </si>
   <si>
@@ -109,18 +91,9 @@
     <t>Chris</t>
   </si>
   <si>
-    <t>Several (N/A)</t>
-  </si>
-  <si>
     <t>French, Python</t>
   </si>
   <si>
-    <t>Chemical Engineering</t>
-  </si>
-  <si>
-    <t>Need a mentee who will also be super busy</t>
-  </si>
-  <si>
     <t>Introvert</t>
   </si>
   <si>
@@ -139,12 +112,6 @@
     <t>Logan Ardrey</t>
   </si>
   <si>
-    <t>Shantanu</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
     <t>Junior</t>
   </si>
   <si>
@@ -157,19 +124,16 @@
     <t>Avinav Sanjel</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>Nepali</t>
   </si>
   <si>
-    <t>Biomedical Science</t>
-  </si>
-  <si>
     <t>Sophomore</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -430,21 +394,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="24" width="21.54296875" customWidth="1"/>
+    <col min="1" max="18" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -465,243 +429,203 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
         <v>4</v>
       </c>
-      <c r="P2" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>5</v>
-      </c>
-      <c r="R2" s="2">
-        <v>4</v>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
